--- a/downloaded_files/EECS101_Tutorial-35278.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35278.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور محمد سامح عبدالعزيز ابوسيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour mohamed sameh abdelaziz abosaif</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4234820949</x:v>
+        <x:v>45921.671350544</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45907.4234820949</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.420144213</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4184601852</x:v>
+        <x:v>45907.420144213</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.4184601852</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35278.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35278.xlsx
@@ -2045,11 +2045,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Electronics-1: Basic Electronic Circuits (EECS101) Location : [20321]20321-32-الجيزة الرئيسي Time : Wednesday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Electronics-1: Basic Electronic Circuits (EECS101) Location : [20105]20105-45-الجيزة الرئيسي Time : Wednesday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Electronics-1: Basic Electronic Circuits (EECS101) Location : [20321]20321-32-الجيزة الرئيسي Time : Wednesday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Electronics-1: Basic Electronic Circuits (EECS101) Location : [20105]20105-45-الجيزة الرئيسي Time : Wednesday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Electronics-1: Basic Electronic Circuits (EECS101) Location : [20321]20321-32-الجيزة الرئيسي Time : Wednesday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Electronics-1: Basic Electronic Circuits (EECS101) Location : [20105]20105-45-الجيزة الرئيسي Time : Wednesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EECS101_Tutorial-35278.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35278.xlsx
@@ -216,7 +216,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -787,7 +787,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>

--- a/downloaded_files/EECS101_Tutorial-35278.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35278.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,15 +301,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam Abdelnaby Elsayed Abdelgawad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230122</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4211684028</x:v>
+        <x:v>45921.671350544</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.671350544</x:v>
+        <x:v>45907.4234820949</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4234820949</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.420144213</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.420144213</x:v>
+        <x:v>45907.4184601852</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.4184601852</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35278.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35278.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Tamer Yahia Nashaat Mostafa Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد شحاته محمد عبد المغيث</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Shehata Mohamed Abdelmogheth</x:t>
   </x:si>
   <x:si>
     <x:t>1230215</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1661,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45928.8339670949</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.1127318287</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45912.1127318287</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.5090681713</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45921.671350544</x:v>
+        <x:v>45907.5090681713</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4234820949</x:v>
+        <x:v>45921.671350544</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45907.4234820949</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.420144213</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4184601852</x:v>
+        <x:v>45907.420144213</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.4184601852</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS101_Tutorial-35278.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35278.xlsx
@@ -192,7 +192,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>1230057</x:t>
@@ -201,7 +201,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230059</x:t>
@@ -237,7 +237,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230073</x:t>
@@ -354,7 +354,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
   <x:si>
     <x:t>1230293</x:t>

--- a/downloaded_files/EECS101_Tutorial-35278.xlsx
+++ b/downloaded_files/EECS101_Tutorial-35278.xlsx
@@ -120,7 +120,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1230175</x:t>
